--- a/data/trans_orig/P42-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P42-Clase-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>275983</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>264964</v>
+        <v>264299</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>284706</v>
+        <v>284770</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9033417036735513</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8672744001659207</v>
+        <v>0.8650992762203038</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9318940059110798</v>
+        <v>0.9321049397356547</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>29530</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>20807</v>
+        <v>20743</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>40549</v>
+        <v>41214</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09665829632644873</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06810599408892021</v>
+        <v>0.06789506026434536</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1327255998340796</v>
+        <v>0.1349007237796962</v>
       </c>
     </row>
     <row r="6">
@@ -715,19 +715,19 @@
         <v>315209</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>300880</v>
+        <v>301832</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>326527</v>
+        <v>327598</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8543394923456804</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8155034348572641</v>
+        <v>0.8180837005037869</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8850160274180192</v>
+        <v>0.887919852607933</v>
       </c>
     </row>
     <row r="8">
@@ -744,19 +744,19 @@
         <v>53741</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>42423</v>
+        <v>41352</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>68070</v>
+        <v>67118</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1456605076543196</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1149839725819807</v>
+        <v>0.1120801473920667</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.184496565142736</v>
+        <v>0.1819162994962131</v>
       </c>
     </row>
     <row r="9">
@@ -806,19 +806,19 @@
         <v>141052</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>129562</v>
+        <v>131559</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>149262</v>
+        <v>150329</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8406834653602382</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7722067165609043</v>
+        <v>0.7841058569103199</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8896202525797523</v>
+        <v>0.8959771966656095</v>
       </c>
     </row>
     <row r="11">
@@ -835,19 +835,19 @@
         <v>26730</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>18520</v>
+        <v>17453</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>38220</v>
+        <v>36223</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1593165346397618</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1103797474202477</v>
+        <v>0.1040228033343897</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2277932834390957</v>
+        <v>0.2158941430896791</v>
       </c>
     </row>
     <row r="12">
@@ -897,19 +897,19 @@
         <v>568575</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>547065</v>
+        <v>544716</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>588792</v>
+        <v>587199</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8004313684926795</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7701493943515325</v>
+        <v>0.7668425482573187</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.828891741999593</v>
+        <v>0.8266491735687183</v>
       </c>
     </row>
     <row r="14">
@@ -926,19 +926,19 @@
         <v>141761</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>121544</v>
+        <v>123137</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>163271</v>
+        <v>165620</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1995686315073205</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.171108258000407</v>
+        <v>0.1733508264312817</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2298506056484673</v>
+        <v>0.2331574517426812</v>
       </c>
     </row>
     <row r="15">
@@ -988,19 +988,19 @@
         <v>474826</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>457260</v>
+        <v>457055</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>492198</v>
+        <v>491980</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8423213550868576</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8111601053687226</v>
+        <v>0.8107961952580169</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8731396413785945</v>
+        <v>0.872752014812272</v>
       </c>
     </row>
     <row r="17">
@@ -1017,19 +1017,19 @@
         <v>88885</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>71513</v>
+        <v>71731</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>106451</v>
+        <v>106656</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1576786449131425</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1268603586214056</v>
+        <v>0.1272479851877278</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1888398946312774</v>
+        <v>0.189203804741983</v>
       </c>
     </row>
     <row r="18">
@@ -1079,19 +1079,19 @@
         <v>884639</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>852378</v>
+        <v>854591</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>915228</v>
+        <v>917109</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7095653308039472</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6836894382737519</v>
+        <v>0.6854644965187858</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7341010822053822</v>
+        <v>0.7356095831761992</v>
       </c>
     </row>
     <row r="20">
@@ -1108,19 +1108,19 @@
         <v>362094</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>331505</v>
+        <v>329624</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>394355</v>
+        <v>392142</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2904346691960528</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2658989177946177</v>
+        <v>0.264390416823801</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3163105617262478</v>
+        <v>0.3145355034812147</v>
       </c>
     </row>
     <row r="21">
@@ -1170,19 +1170,19 @@
         <v>2660283</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2614010</v>
+        <v>2611700</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2709103</v>
+        <v>2708620</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7910385289007249</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7772792288104302</v>
+        <v>0.7765923395032397</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8055551146654497</v>
+        <v>0.8054115654774773</v>
       </c>
     </row>
     <row r="23">
@@ -1199,19 +1199,19 @@
         <v>702743</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>653923</v>
+        <v>654406</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>749016</v>
+        <v>751326</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2089614710992751</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1944448853345504</v>
+        <v>0.1945884345225227</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2227207711895698</v>
+        <v>0.2234076604967604</v>
       </c>
     </row>
     <row r="24">
@@ -1381,19 +1381,19 @@
         <v>303002</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>293347</v>
+        <v>294218</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>308676</v>
+        <v>308723</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9635816565868826</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9328785469554252</v>
+        <v>0.935646488706923</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9816246319060754</v>
+        <v>0.9817758736381313</v>
       </c>
     </row>
     <row r="5">
@@ -1410,19 +1410,19 @@
         <v>11452</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5778</v>
+        <v>5731</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>21107</v>
+        <v>20236</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03641834341311742</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01837536809392454</v>
+        <v>0.01822412636186871</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06712145304457465</v>
+        <v>0.06435351129307819</v>
       </c>
     </row>
     <row r="6">
@@ -1472,19 +1472,19 @@
         <v>315195</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>306420</v>
+        <v>305652</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>322562</v>
+        <v>322754</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9419777462523988</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9157525040444987</v>
+        <v>0.9134568992704879</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9639935600490912</v>
+        <v>0.9645689403245233</v>
       </c>
     </row>
     <row r="8">
@@ -1501,19 +1501,19 @@
         <v>19415</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>12048</v>
+        <v>11856</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>28190</v>
+        <v>28958</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05802225374760121</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03600643995090884</v>
+        <v>0.0354310596754767</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08424749595550132</v>
+        <v>0.0865431007295121</v>
       </c>
     </row>
     <row r="9">
@@ -1563,19 +1563,19 @@
         <v>239910</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>229591</v>
+        <v>229611</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>247528</v>
+        <v>247611</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9259911927640304</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8861593482281241</v>
+        <v>0.8862367146194258</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.955393277019818</v>
+        <v>0.955713954026076</v>
       </c>
     </row>
     <row r="11">
@@ -1592,19 +1592,19 @@
         <v>19175</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>11557</v>
+        <v>11474</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>29494</v>
+        <v>29474</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07400880723596957</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04460672298018195</v>
+        <v>0.0442860459739241</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.113840651771876</v>
+        <v>0.1137632853805742</v>
       </c>
     </row>
     <row r="12">
@@ -1654,19 +1654,19 @@
         <v>683397</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>667282</v>
+        <v>664542</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>699833</v>
+        <v>699551</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8962775125778284</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8751422712539715</v>
+        <v>0.87154883113943</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9178329985388661</v>
+        <v>0.9174628514271315</v>
       </c>
     </row>
     <row r="14">
@@ -1683,19 +1683,19 @@
         <v>79087</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>62651</v>
+        <v>62933</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>95202</v>
+        <v>97942</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1037224874221716</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08216700146113409</v>
+        <v>0.08253714857286859</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1248577287460285</v>
+        <v>0.1284511688605701</v>
       </c>
     </row>
     <row r="15">
@@ -1745,19 +1745,19 @@
         <v>665085</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>646285</v>
+        <v>644382</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>682129</v>
+        <v>682151</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8808185402753838</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8559209725803844</v>
+        <v>0.8534003745361672</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9033912744752909</v>
+        <v>0.9034209366907907</v>
       </c>
     </row>
     <row r="17">
@@ -1774,19 +1774,19 @@
         <v>89991</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>72947</v>
+        <v>72925</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>108791</v>
+        <v>110694</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1191814597246163</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09660872552470917</v>
+        <v>0.09657906330920941</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1440790274196159</v>
+        <v>0.1465996254638328</v>
       </c>
     </row>
     <row r="18">
@@ -1836,19 +1836,19 @@
         <v>870451</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>844324</v>
+        <v>844143</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>896681</v>
+        <v>896520</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7882590798370248</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7645990863085338</v>
+        <v>0.7644356906211559</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8120127781742634</v>
+        <v>0.8118670872706383</v>
       </c>
     </row>
     <row r="20">
@@ -1865,19 +1865,19 @@
         <v>233819</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>207589</v>
+        <v>207750</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>259946</v>
+        <v>260127</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2117409201629752</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1879872218257366</v>
+        <v>0.1881329127293617</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2354009136914662</v>
+        <v>0.2355643093788441</v>
       </c>
     </row>
     <row r="21">
@@ -1927,19 +1927,19 @@
         <v>3077041</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3035859</v>
+        <v>3033368</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3115700</v>
+        <v>3116769</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8716881216799104</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8600217279885237</v>
+        <v>0.8593161302061642</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8826398218809676</v>
+        <v>0.8829427808020219</v>
       </c>
     </row>
     <row r="23">
@@ -1956,19 +1956,19 @@
         <v>452938</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>414279</v>
+        <v>413210</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>494120</v>
+        <v>496611</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1283118783200896</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1173601781190325</v>
+        <v>0.117057219197978</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1399782720114764</v>
+        <v>0.140683869793836</v>
       </c>
     </row>
     <row r="24">
@@ -2138,19 +2138,19 @@
         <v>327276</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>317928</v>
+        <v>317120</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>334478</v>
+        <v>334604</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9474404666595697</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9203776088471143</v>
+        <v>0.9180374320591388</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9682883797246964</v>
+        <v>0.9686527874819028</v>
       </c>
     </row>
     <row r="5">
@@ -2167,19 +2167,19 @@
         <v>18156</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10954</v>
+        <v>10828</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>27504</v>
+        <v>28312</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05255953334043029</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03171162027530302</v>
+        <v>0.03134721251809724</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07962239115288561</v>
+        <v>0.08196256794086113</v>
       </c>
     </row>
     <row r="6">
@@ -2229,19 +2229,19 @@
         <v>353348</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>343597</v>
+        <v>343664</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>359928</v>
+        <v>360411</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9580902244505963</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9316511271726335</v>
+        <v>0.9318347967104351</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9759329230715387</v>
+        <v>0.9772427292066437</v>
       </c>
     </row>
     <row r="8">
@@ -2258,19 +2258,19 @@
         <v>15456</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8876</v>
+        <v>8393</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>25207</v>
+        <v>25140</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04190977554940366</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02406707692846116</v>
+        <v>0.02275727079335623</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06834887282736631</v>
+        <v>0.06816520328956462</v>
       </c>
     </row>
     <row r="9">
@@ -2320,19 +2320,19 @@
         <v>155576</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>147893</v>
+        <v>147478</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>161106</v>
+        <v>160397</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9365082987741388</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8902599103340323</v>
+        <v>0.8877634569930138</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9697976979249895</v>
+        <v>0.9655309475967778</v>
       </c>
     </row>
     <row r="11">
@@ -2349,19 +2349,19 @@
         <v>10547</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5017</v>
+        <v>5726</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>18230</v>
+        <v>18645</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06349170122586117</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03020230207501068</v>
+        <v>0.03446905240322219</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1097400896659678</v>
+        <v>0.1122365430069861</v>
       </c>
     </row>
     <row r="12">
@@ -2411,19 +2411,19 @@
         <v>741854</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>723213</v>
+        <v>722748</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>758013</v>
+        <v>758456</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9015801253091892</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8789250411236904</v>
+        <v>0.8783606235263265</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9212177882507041</v>
+        <v>0.9217562245533403</v>
       </c>
     </row>
     <row r="14">
@@ -2440,19 +2440,19 @@
         <v>80984</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>64825</v>
+        <v>64382</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>99625</v>
+        <v>100090</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.09841987469081083</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07878221174929585</v>
+        <v>0.07824377544665992</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1210749588763094</v>
+        <v>0.1216393764736737</v>
       </c>
     </row>
     <row r="15">
@@ -2502,19 +2502,19 @@
         <v>639538</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>620202</v>
+        <v>620453</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>658034</v>
+        <v>656770</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8752791314475985</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8488163576791974</v>
+        <v>0.8491590720503511</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9005936838449625</v>
+        <v>0.898863037935841</v>
       </c>
     </row>
     <row r="17">
@@ -2531,19 +2531,19 @@
         <v>91129</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>72633</v>
+        <v>73897</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>110465</v>
+        <v>110214</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1247208685524015</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09940631615503756</v>
+        <v>0.1011369620641593</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1511836423208027</v>
+        <v>0.1508409279496489</v>
       </c>
     </row>
     <row r="18">
@@ -2593,19 +2593,19 @@
         <v>836918</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>809965</v>
+        <v>805840</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>863314</v>
+        <v>861796</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7819583866988158</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7567754516472973</v>
+        <v>0.7529209430932322</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8066208262001898</v>
+        <v>0.8052021580694005</v>
       </c>
     </row>
     <row r="20">
@@ -2622,19 +2622,19 @@
         <v>233367</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>206971</v>
+        <v>208489</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>260320</v>
+        <v>264445</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2180416133011842</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1933791737998105</v>
+        <v>0.1947978419305997</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2432245483527027</v>
+        <v>0.2470790569067678</v>
       </c>
     </row>
     <row r="21">
@@ -2684,19 +2684,19 @@
         <v>3054509</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3016317</v>
+        <v>3014018</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3093279</v>
+        <v>3090933</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.871683696080964</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8607848188736771</v>
+        <v>0.8601286715810408</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8827479292947212</v>
+        <v>0.8820782060890441</v>
       </c>
     </row>
     <row r="23">
@@ -2713,19 +2713,19 @@
         <v>449639</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>410869</v>
+        <v>413215</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>487831</v>
+        <v>490130</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1283163039190361</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1172520707052787</v>
+        <v>0.117921793910956</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1392151811263229</v>
+        <v>0.1398713284189592</v>
       </c>
     </row>
     <row r="24">
@@ -2895,19 +2895,19 @@
         <v>303164</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>291759</v>
+        <v>291535</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>312790</v>
+        <v>312527</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9014430755085175</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8675293968919765</v>
+        <v>0.8668652562892307</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9300659878422411</v>
+        <v>0.9292829065652136</v>
       </c>
     </row>
     <row r="5">
@@ -2924,19 +2924,19 @@
         <v>33146</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>23520</v>
+        <v>23783</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>44551</v>
+        <v>44775</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09855692449148246</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06993401215775891</v>
+        <v>0.07071709343478648</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1324706031080238</v>
+        <v>0.1331347437107696</v>
       </c>
     </row>
     <row r="6">
@@ -2986,19 +2986,19 @@
         <v>280289</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>268091</v>
+        <v>269320</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>288603</v>
+        <v>288451</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.9069335465302882</v>
+        <v>0.9069335465302883</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8674667202258695</v>
+        <v>0.87144064034474</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.933835880417461</v>
+        <v>0.9333431990439985</v>
       </c>
     </row>
     <row r="8">
@@ -3015,19 +3015,19 @@
         <v>28762</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>20448</v>
+        <v>20600</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>40960</v>
+        <v>39731</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.09306645346971167</v>
+        <v>0.09306645346971165</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06616411958253902</v>
+        <v>0.06665680095600134</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1325332797741308</v>
+        <v>0.12855935965526</v>
       </c>
     </row>
     <row r="9">
@@ -3077,19 +3077,19 @@
         <v>112427</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>103254</v>
+        <v>104736</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>118803</v>
+        <v>118934</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.8511799504904277</v>
+        <v>0.8511799504904276</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7817291064323991</v>
+        <v>0.7929531561859171</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8994488180636576</v>
+        <v>0.9004453482012496</v>
       </c>
     </row>
     <row r="11">
@@ -3106,19 +3106,19 @@
         <v>19657</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>13281</v>
+        <v>13150</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>28830</v>
+        <v>27348</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1488200495095722</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1005511819363422</v>
+        <v>0.09955465179875075</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2182708935676009</v>
+        <v>0.2070468438140831</v>
       </c>
     </row>
     <row r="12">
@@ -3168,19 +3168,19 @@
         <v>547497</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>532181</v>
+        <v>532762</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>560661</v>
+        <v>562478</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.8804096903548138</v>
+        <v>0.880409690354814</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8557806110501723</v>
+        <v>0.8567156768236484</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9015780636641477</v>
+        <v>0.9044996798868912</v>
       </c>
     </row>
     <row r="14">
@@ -3197,19 +3197,19 @@
         <v>74369</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>61205</v>
+        <v>59388</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>89685</v>
+        <v>89104</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.119590309645186</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09842193633585214</v>
+        <v>0.09550032011310876</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1442193889498277</v>
+        <v>0.1432843231763516</v>
       </c>
     </row>
     <row r="15">
@@ -3259,19 +3259,19 @@
         <v>550626</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>531909</v>
+        <v>533348</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>566542</v>
+        <v>566352</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8476066852892818</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8187941774694599</v>
+        <v>0.8210082755604172</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8721054666499275</v>
+        <v>0.8718134822755562</v>
       </c>
     </row>
     <row r="17">
@@ -3288,19 +3288,19 @@
         <v>98999</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>83083</v>
+        <v>83273</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>117716</v>
+        <v>116277</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1523933147107182</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1278945333500727</v>
+        <v>0.1281865177244438</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1812058225305401</v>
+        <v>0.1789917244395827</v>
       </c>
     </row>
     <row r="18">
@@ -3350,19 +3350,19 @@
         <v>495724</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>468550</v>
+        <v>465738</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>522172</v>
+        <v>523107</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7297941591587661</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6897901061315183</v>
+        <v>0.6856503411004716</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7687306153444023</v>
+        <v>0.7701075031965817</v>
       </c>
     </row>
     <row r="20">
@@ -3379,19 +3379,19 @@
         <v>183541</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>157093</v>
+        <v>156158</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>210715</v>
+        <v>213527</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2702058408412338</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2312693846555976</v>
+        <v>0.2298924968034183</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3102098938684815</v>
+        <v>0.3143496588995282</v>
       </c>
     </row>
     <row r="21">
@@ -3441,19 +3441,19 @@
         <v>2289727</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2245326</v>
+        <v>2249779</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2326437</v>
+        <v>2329516</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.8392810228524077</v>
+        <v>0.8392810228524076</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8230062119410011</v>
+        <v>0.8246384315312212</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8527365431458095</v>
+        <v>0.8538652287742928</v>
       </c>
     </row>
     <row r="23">
@@ -3470,19 +3470,19 @@
         <v>438474</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>401764</v>
+        <v>398685</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>482875</v>
+        <v>478422</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1607189771475923</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1472634568541905</v>
+        <v>0.1461347712257072</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1769937880589991</v>
+        <v>0.1753615684687791</v>
       </c>
     </row>
     <row r="24">
